--- a/abbreviations/abbreviation_major.xlsx
+++ b/abbreviations/abbreviation_major.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eliran/Downloads/Archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eliran/Desktop/bible-verse-parser/abbreviations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35282295-A39F-E546-97D2-3F6518405820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA7515-A7E7-2945-AA5A-0D3ACDB299A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{FC4F92E5-A5E1-EE44-8556-FF20D210DCA0}"/>
   </bookViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BA8C5E-949E-2542-B159-C16787482617}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="L6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
